--- a/flow_based_domain/timestamps.xlsx
+++ b/flow_based_domain/timestamps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balaz\SoftwareDeveloping\TUD\thesis\FBMC\flow_based_domain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balazs.riskutia\FBMC\flow_based_domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE1750B-3C7E-4F0D-89C9-867D93404B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D66F90-5396-4461-9135-DE2DEAB63721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18180" yWindow="8810" windowWidth="16200" windowHeight="28060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,7 +83,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -390,7 +390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5065"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5013" workbookViewId="0">
+      <selection activeCell="J5032" sqref="J5032"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
